--- a/f-scores/f-score.xlsx
+++ b/f-scores/f-score.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="F-Score" sheetId="1" r:id="rId1"/>
     <sheet name="F-Score Relative" sheetId="2" r:id="rId2"/>
+    <sheet name="F-Score Relative (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="f_score_each" localSheetId="0">'F-Score'!$A$1:$L$65</definedName>
     <definedName name="f_score_each" localSheetId="1">'F-Score Relative'!$A$1:$L$65</definedName>
+    <definedName name="f_score_each" localSheetId="2">'F-Score Relative (2)'!$A$1:$L$65</definedName>
     <definedName name="f_score_wiki" localSheetId="0">'F-Score'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="1">'F-Score Relative'!$O$1:$Y$81</definedName>
+    <definedName name="f_score_wiki" localSheetId="2">'F-Score Relative (2)'!$O$1:$Y$81</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -71,14 +74,39 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="f-score-wiki" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="f-score-each11" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-each.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="f-score-wiki" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="f-score-wiki1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="f-score-wiki1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="f-score-wiki11" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
@@ -89,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="15">
   <si>
     <t>d</t>
   </si>
@@ -266,7 +294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -369,7 +396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -535,7 +561,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -638,11 +663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517439168"/>
-        <c:axId val="565143072"/>
+        <c:axId val="402518880"/>
+        <c:axId val="399346784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="517439168"/>
+        <c:axId val="402518880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -674,7 +699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -741,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565143072"/>
+        <c:crossAx val="399346784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="565143072"/>
+        <c:axId val="399346784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +819,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -856,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517439168"/>
+        <c:crossAx val="402518880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,7 +893,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1405,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564754080"/>
-        <c:axId val="564873952"/>
+        <c:axId val="590500320"/>
+        <c:axId val="590712256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="564754080"/>
+        <c:axId val="590500320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1509,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564873952"/>
+        <c:crossAx val="590712256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564873952"/>
+        <c:axId val="590712256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564754080"/>
+        <c:crossAx val="590500320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,11 +2218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569449872"/>
-        <c:axId val="569898016"/>
+        <c:axId val="590741936"/>
+        <c:axId val="590745328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569449872"/>
+        <c:axId val="590741936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2300,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569898016"/>
+        <c:crossAx val="590745328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2308,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569898016"/>
+        <c:axId val="590745328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2436,1565 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569449872"/>
+        <c:crossAx val="590741936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>Actual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>Connection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Strength</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>v.s.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Connection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Strength</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>(Each)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.246180964158704"/>
+          <c:y val="0.0303614463591964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.170708431772382"/>
+          <c:y val="0.11825783356907"/>
+          <c:w val="0.76598205988887"/>
+          <c:h val="0.784361498612304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F-Score each (relative)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$J$4:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$AL$4:$AL$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score each (actual)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$J$4:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564564352"/>
+        <c:axId val="564561872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564564352"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564561872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564561872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>F-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564564352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>Actual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>Connection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Strength</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>v.s.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Connection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>Strength</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>(Wiki)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.246180964158704"/>
+          <c:y val="0.0303614463591964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.170708431772382"/>
+          <c:y val="0.11825783356907"/>
+          <c:w val="0.76598205988887"/>
+          <c:h val="0.784361498612304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F-Score wiki (relative)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$X$2:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$AZ$2:$AZ$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score wiki (actual)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$X$2:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score Relative (2)'!$Y$2:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564459760"/>
+        <c:axId val="564432048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564459760"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564432048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564432048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>F-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564459760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,6 +4156,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4124,6 +5784,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4226,20 +6892,97 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>56445</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>620889</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>649113</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4789,7 +7532,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K4:K11" si="2">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
+        <f t="shared" ref="K5:K11" si="2">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
         <v>0.68300000000000005</v>
       </c>
       <c r="L5">
@@ -7951,7 +10694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="AX23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BK64" sqref="BK64"/>
     </sheetView>
   </sheetViews>
@@ -8285,7 +11028,7 @@
         <v>10000</v>
       </c>
       <c r="AZ3">
-        <f t="shared" ref="AZ3:AZ11" si="1">ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY3,AS:AS, "test"), 3)</f>
+        <f t="shared" ref="AZ3:AZ4" si="1">ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY3,AS:AS, "test"), 3)</f>
         <v>0.71699999999999997</v>
       </c>
     </row>
@@ -8437,7 +11180,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K4:K11" si="4">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
+        <f t="shared" ref="K5:K11" si="4">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
         <v>0.68300000000000005</v>
       </c>
       <c r="L5">
@@ -14611,6 +17354,6678 @@
       </c>
       <c r="AV81">
         <v>0.73699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BB19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BZ37" sqref="BZ37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="O2">
+        <v>300</v>
+      </c>
+      <c r="P2">
+        <v>5000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>15000</v>
+      </c>
+      <c r="Y2">
+        <f>ROUND(AVERAGEIFS(U:U,P:P, X2,R:R, "test"), 3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>300</v>
+      </c>
+      <c r="AC2">
+        <v>5000</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>15000</v>
+      </c>
+      <c r="AP2">
+        <v>300</v>
+      </c>
+      <c r="AQ2">
+        <v>5000</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>15000</v>
+      </c>
+      <c r="AZ2">
+        <f>ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY2,AS:AS, "test"), 3)</f>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="J3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>300</v>
+      </c>
+      <c r="P3">
+        <v>5000</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="T3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="X3">
+        <v>10000</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y11" si="0">ROUND(AVERAGEIFS(U:U,P:P, X3,R:R, "test"), 3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AB3">
+        <v>300</v>
+      </c>
+      <c r="AC3">
+        <v>5000</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AH3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="AK3">
+        <v>10000</v>
+      </c>
+      <c r="AP3">
+        <v>300</v>
+      </c>
+      <c r="AQ3">
+        <v>5000</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AY3">
+        <v>10000</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3:AZ4" si="1">ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY3,AS:AS, "test"), 3)</f>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J4">
+        <v>5000</v>
+      </c>
+      <c r="K4">
+        <f>ROUND(AVERAGEIFS(G:G,B:B, J4,D:D, "test"), 3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L11" si="2">ROUND(AVERAGEIFS(G:G,B:B, J4,D:D, "train"), 3)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <v>5000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>5000</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AB4">
+        <v>300</v>
+      </c>
+      <c r="AC4">
+        <v>5000</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>5000</v>
+      </c>
+      <c r="AL4">
+        <f>ROUND(AVERAGEIFS(AH:AH,AC:AC, AK4,AE:AE, "test"), 3)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ref="AM4:AM11" si="3">ROUND(AVERAGEIFS(AH:AH,AC:AC, AK4,AE:AE, "train"), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>300</v>
+      </c>
+      <c r="AQ4">
+        <v>5000</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>5000</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="1"/>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K11" si="4">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="P5">
+        <v>5000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="T5">
+        <v>0.68</v>
+      </c>
+      <c r="U5">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="X5">
+        <v>2000</v>
+      </c>
+      <c r="Y5">
+        <f>ROUND(AVERAGEIFS(U:U,P:P, X5,R:R, "test"), 3)</f>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="AB5">
+        <v>300</v>
+      </c>
+      <c r="AC5">
+        <v>5000</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AG5">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AH5">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AK5">
+        <v>2000</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ref="AL5:AL11" si="5">ROUND(AVERAGEIFS(AH:AH,AC:AC, AK5,AE:AE, "test"), 3)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>300</v>
+      </c>
+      <c r="AQ5">
+        <v>5000</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT5">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AV5">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AY5">
+        <v>2000</v>
+      </c>
+      <c r="AZ5">
+        <f>ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY5,AS:AS, "test"), 3)</f>
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>5000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1500</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>300</v>
+      </c>
+      <c r="AC6">
+        <v>5000</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1500</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="5"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>300</v>
+      </c>
+      <c r="AQ6">
+        <v>5000</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1500</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ11" si="6">ROUND(AVERAGEIFS(AV:AV,AQ:AQ, AY6,AS:AS, "test"), 3)</f>
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O7">
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="T7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="U7">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="X7">
+        <v>1000</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>300</v>
+      </c>
+      <c r="AC7">
+        <v>5000</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF7">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.748</v>
+      </c>
+      <c r="AK7">
+        <v>1000</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="5"/>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>300</v>
+      </c>
+      <c r="AQ7">
+        <v>5000</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT7">
+        <v>0.76</v>
+      </c>
+      <c r="AU7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>1000</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="6"/>
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <v>5000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>500</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>300</v>
+      </c>
+      <c r="AC8">
+        <v>5000</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>500</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="5"/>
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>300</v>
+      </c>
+      <c r="AQ8">
+        <v>5000</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>500</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="6"/>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="O9">
+        <v>300</v>
+      </c>
+      <c r="P9">
+        <v>5000</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="T9">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="U9">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AB9">
+        <v>300</v>
+      </c>
+      <c r="AC9">
+        <v>5000</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.746</v>
+      </c>
+      <c r="AK9">
+        <v>100</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>300</v>
+      </c>
+      <c r="AQ9">
+        <v>5000</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT9">
+        <v>0.754</v>
+      </c>
+      <c r="AU9">
+        <v>0.74</v>
+      </c>
+      <c r="AV9">
+        <v>0.747</v>
+      </c>
+      <c r="AY9">
+        <v>100</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="6"/>
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O10">
+        <v>300</v>
+      </c>
+      <c r="P10">
+        <v>2000</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>300</v>
+      </c>
+      <c r="AC10">
+        <v>2000</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>50</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>0.433</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>300</v>
+      </c>
+      <c r="AQ10">
+        <v>2000</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>50</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="6"/>
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11">
+        <v>2000</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>0.62</v>
+      </c>
+      <c r="T11">
+        <v>0.628</v>
+      </c>
+      <c r="U11">
+        <v>0.624</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AB11">
+        <v>300</v>
+      </c>
+      <c r="AC11">
+        <v>2000</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AG11">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>0.437</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>300</v>
+      </c>
+      <c r="AQ11">
+        <v>2000</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT11">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AV11">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AY11">
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="6"/>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.71</v>
+      </c>
+      <c r="F12">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12">
+        <v>2000</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>300</v>
+      </c>
+      <c r="AC12">
+        <v>2000</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>300</v>
+      </c>
+      <c r="AQ12">
+        <v>2000</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <v>2000</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="T13">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="U13">
+        <v>0.65</v>
+      </c>
+      <c r="AB13">
+        <v>300</v>
+      </c>
+      <c r="AC13">
+        <v>2000</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AG13">
+        <v>0.69</v>
+      </c>
+      <c r="AH13">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AP13">
+        <v>300</v>
+      </c>
+      <c r="AQ13">
+        <v>2000</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>0.71</v>
+      </c>
+      <c r="AU13">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AV13">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G14">
+        <v>0.68</v>
+      </c>
+      <c r="O14">
+        <v>300</v>
+      </c>
+      <c r="P14">
+        <v>2000</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>300</v>
+      </c>
+      <c r="AC14">
+        <v>2000</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>300</v>
+      </c>
+      <c r="AQ14">
+        <v>2000</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="P15">
+        <v>2000</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="T15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.65</v>
+      </c>
+      <c r="AB15">
+        <v>300</v>
+      </c>
+      <c r="AC15">
+        <v>2000</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AG15">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AH15">
+        <v>0.747</v>
+      </c>
+      <c r="AP15">
+        <v>300</v>
+      </c>
+      <c r="AQ15">
+        <v>2000</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT15">
+        <v>0.746</v>
+      </c>
+      <c r="AU15">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AV15">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="O16">
+        <v>300</v>
+      </c>
+      <c r="P16">
+        <v>2000</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>300</v>
+      </c>
+      <c r="AC16">
+        <v>2000</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>300</v>
+      </c>
+      <c r="AQ16">
+        <v>2000</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F17">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O17">
+        <v>300</v>
+      </c>
+      <c r="P17">
+        <v>2000</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T17">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U17">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AB17">
+        <v>300</v>
+      </c>
+      <c r="AC17">
+        <v>2000</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF17">
+        <v>0.755</v>
+      </c>
+      <c r="AG17">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AP17">
+        <v>300</v>
+      </c>
+      <c r="AQ17">
+        <v>2000</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT17">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AU17">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AV17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>1500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="O18">
+        <v>300</v>
+      </c>
+      <c r="P18">
+        <v>1500</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>300</v>
+      </c>
+      <c r="AC18">
+        <v>1500</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>300</v>
+      </c>
+      <c r="AQ18">
+        <v>1500</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>1500</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O19">
+        <v>300</v>
+      </c>
+      <c r="P19">
+        <v>1500</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0.62</v>
+      </c>
+      <c r="U19">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AB19">
+        <v>300</v>
+      </c>
+      <c r="AC19">
+        <v>1500</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF19">
+        <v>0.7</v>
+      </c>
+      <c r="AG19">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AH19">
+        <v>0.7</v>
+      </c>
+      <c r="AP19">
+        <v>300</v>
+      </c>
+      <c r="AQ19">
+        <v>1500</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT19">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AU19">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AV19">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>1500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.71</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>1500</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>300</v>
+      </c>
+      <c r="AC20">
+        <v>1500</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>300</v>
+      </c>
+      <c r="AQ20">
+        <v>1500</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <v>1500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.67</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21">
+        <v>1500</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="T21">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="U21">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AB21">
+        <v>300</v>
+      </c>
+      <c r="AC21">
+        <v>1500</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF21">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AG21">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="AH21">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AP21">
+        <v>300</v>
+      </c>
+      <c r="AQ21">
+        <v>1500</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT21">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AU21">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AV21">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>1500</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G22">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="O22">
+        <v>300</v>
+      </c>
+      <c r="P22">
+        <v>1500</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>300</v>
+      </c>
+      <c r="AC22">
+        <v>1500</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>300</v>
+      </c>
+      <c r="AQ22">
+        <v>1500</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="O23">
+        <v>300</v>
+      </c>
+      <c r="P23">
+        <v>1500</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T23">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="AB23">
+        <v>300</v>
+      </c>
+      <c r="AC23">
+        <v>1500</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AG23">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AH23">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AP23">
+        <v>300</v>
+      </c>
+      <c r="AQ23">
+        <v>1500</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT23">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AU23">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AV23">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>300</v>
+      </c>
+      <c r="B24">
+        <v>1500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O24">
+        <v>300</v>
+      </c>
+      <c r="P24">
+        <v>1500</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>300</v>
+      </c>
+      <c r="AC24">
+        <v>1500</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>300</v>
+      </c>
+      <c r="AQ24">
+        <v>1500</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>1500</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="O25">
+        <v>300</v>
+      </c>
+      <c r="P25">
+        <v>1500</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="T25">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="U25">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="AB25">
+        <v>300</v>
+      </c>
+      <c r="AC25">
+        <v>1500</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF25">
+        <v>0.752</v>
+      </c>
+      <c r="AG25">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AH25">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AP25">
+        <v>300</v>
+      </c>
+      <c r="AQ25">
+        <v>1500</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT25">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AU25">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AV25">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.624</v>
+      </c>
+      <c r="O26">
+        <v>300</v>
+      </c>
+      <c r="P26">
+        <v>1000</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>300</v>
+      </c>
+      <c r="AC26">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>300</v>
+      </c>
+      <c r="AQ26">
+        <v>1000</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.624</v>
+      </c>
+      <c r="G27">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="O27">
+        <v>300</v>
+      </c>
+      <c r="P27">
+        <v>1000</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="T27">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="U27">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AB27">
+        <v>300</v>
+      </c>
+      <c r="AC27">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF27">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AG27">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AH27">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AP27">
+        <v>300</v>
+      </c>
+      <c r="AQ27">
+        <v>1000</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT27">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AU27">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AV27">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="O28">
+        <v>300</v>
+      </c>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>300</v>
+      </c>
+      <c r="AC28">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>300</v>
+      </c>
+      <c r="AQ28">
+        <v>1000</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>300</v>
+      </c>
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="G29">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O29">
+        <v>300</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="T29">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="U29">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AB29">
+        <v>300</v>
+      </c>
+      <c r="AC29">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF29">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AG29">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AH29">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AP29">
+        <v>300</v>
+      </c>
+      <c r="AQ29">
+        <v>1000</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT29">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AU29">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AV29">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="O30">
+        <v>300</v>
+      </c>
+      <c r="P30">
+        <v>1000</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>300</v>
+      </c>
+      <c r="AC30">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>300</v>
+      </c>
+      <c r="AQ30">
+        <v>1000</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O31">
+        <v>300</v>
+      </c>
+      <c r="P31">
+        <v>1000</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>0.628</v>
+      </c>
+      <c r="T31">
+        <v>0.6</v>
+      </c>
+      <c r="U31">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>300</v>
+      </c>
+      <c r="AC31">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AH31">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AP31">
+        <v>300</v>
+      </c>
+      <c r="AQ31">
+        <v>1000</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT31">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AU31">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AV31">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G32">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="O32">
+        <v>300</v>
+      </c>
+      <c r="P32">
+        <v>1000</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>300</v>
+      </c>
+      <c r="AC32">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>300</v>
+      </c>
+      <c r="AQ32">
+        <v>1000</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G33">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="O33">
+        <v>300</v>
+      </c>
+      <c r="P33">
+        <v>1000</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>0.623</v>
+      </c>
+      <c r="T33">
+        <v>0.623</v>
+      </c>
+      <c r="U33">
+        <v>0.623</v>
+      </c>
+      <c r="AB33">
+        <v>300</v>
+      </c>
+      <c r="AC33">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF33">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AG33">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AH33">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AP33">
+        <v>300</v>
+      </c>
+      <c r="AQ33">
+        <v>1000</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT33">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AU33">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AV33">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>300</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G34">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O34">
+        <v>300</v>
+      </c>
+      <c r="P34">
+        <v>500</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>300</v>
+      </c>
+      <c r="AC34">
+        <v>500</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>300</v>
+      </c>
+      <c r="AQ34">
+        <v>500</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>300</v>
+      </c>
+      <c r="B35">
+        <v>500</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F35">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="O35">
+        <v>300</v>
+      </c>
+      <c r="P35">
+        <v>500</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>0.504</v>
+      </c>
+      <c r="T35">
+        <v>0.505</v>
+      </c>
+      <c r="U35">
+        <v>0.505</v>
+      </c>
+      <c r="AB35">
+        <v>300</v>
+      </c>
+      <c r="AC35">
+        <v>500</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF35">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AG35">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AH35">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AP35">
+        <v>300</v>
+      </c>
+      <c r="AQ35">
+        <v>500</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT35">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="AU35">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AV35">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>300</v>
+      </c>
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0.627</v>
+      </c>
+      <c r="F36">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.629</v>
+      </c>
+      <c r="O36">
+        <v>300</v>
+      </c>
+      <c r="P36">
+        <v>500</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>300</v>
+      </c>
+      <c r="AC36">
+        <v>500</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>300</v>
+      </c>
+      <c r="AQ36">
+        <v>500</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>300</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F37">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G37">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="O37">
+        <v>300</v>
+      </c>
+      <c r="P37">
+        <v>500</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="T37">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="U37">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AB37">
+        <v>300</v>
+      </c>
+      <c r="AC37">
+        <v>500</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF37">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AG37">
+        <v>0.64</v>
+      </c>
+      <c r="AH37">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AP37">
+        <v>300</v>
+      </c>
+      <c r="AQ37">
+        <v>500</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT37">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AU37">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AV37">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="O38">
+        <v>300</v>
+      </c>
+      <c r="P38">
+        <v>500</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>300</v>
+      </c>
+      <c r="AC38">
+        <v>500</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>300</v>
+      </c>
+      <c r="AQ38">
+        <v>500</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>300</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.624</v>
+      </c>
+      <c r="O39">
+        <v>300</v>
+      </c>
+      <c r="P39">
+        <v>500</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="T39">
+        <v>0.505</v>
+      </c>
+      <c r="U39">
+        <v>0.52</v>
+      </c>
+      <c r="AB39">
+        <v>300</v>
+      </c>
+      <c r="AC39">
+        <v>500</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF39">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AG39">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AH39">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AP39">
+        <v>300</v>
+      </c>
+      <c r="AQ39">
+        <v>500</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT39">
+        <v>0.622</v>
+      </c>
+      <c r="AU39">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="AV39">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>300</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="O40">
+        <v>300</v>
+      </c>
+      <c r="P40">
+        <v>500</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>300</v>
+      </c>
+      <c r="AC40">
+        <v>500</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>300</v>
+      </c>
+      <c r="AQ40">
+        <v>500</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="G41">
+        <v>0.65</v>
+      </c>
+      <c r="O41">
+        <v>300</v>
+      </c>
+      <c r="P41">
+        <v>500</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="T41">
+        <v>0.53</v>
+      </c>
+      <c r="U41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AB41">
+        <v>300</v>
+      </c>
+      <c r="AC41">
+        <v>500</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF41">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AG41">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AH41">
+        <v>0.7</v>
+      </c>
+      <c r="AP41">
+        <v>300</v>
+      </c>
+      <c r="AQ41">
+        <v>500</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT41">
+        <v>0.62</v>
+      </c>
+      <c r="AU41">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="AV41">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.379</v>
+      </c>
+      <c r="F42">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O42">
+        <v>300</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>300</v>
+      </c>
+      <c r="AC42">
+        <v>100</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>300</v>
+      </c>
+      <c r="AQ42">
+        <v>100</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>300</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0.375</v>
+      </c>
+      <c r="F43">
+        <v>0.372</v>
+      </c>
+      <c r="G43">
+        <v>0.373</v>
+      </c>
+      <c r="O43">
+        <v>300</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" t="s">
+        <v>11</v>
+      </c>
+      <c r="S43">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="T43">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="U43">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AB43">
+        <v>300</v>
+      </c>
+      <c r="AC43">
+        <v>100</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF43">
+        <v>0.434</v>
+      </c>
+      <c r="AG43">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AH43">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AP43">
+        <v>300</v>
+      </c>
+      <c r="AQ43">
+        <v>100</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT43">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AU43">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AV43">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="O44">
+        <v>300</v>
+      </c>
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>300</v>
+      </c>
+      <c r="AC44">
+        <v>100</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>300</v>
+      </c>
+      <c r="AQ44">
+        <v>100</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>300</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O45">
+        <v>300</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S45">
+        <v>0.435</v>
+      </c>
+      <c r="T45">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="U45">
+        <v>0.432</v>
+      </c>
+      <c r="AB45">
+        <v>300</v>
+      </c>
+      <c r="AC45">
+        <v>100</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF45">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AG45">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AH45">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AP45">
+        <v>300</v>
+      </c>
+      <c r="AQ45">
+        <v>100</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT45">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AU45">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AV45">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.374</v>
+      </c>
+      <c r="G46">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O46">
+        <v>300</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>300</v>
+      </c>
+      <c r="AC46">
+        <v>100</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>300</v>
+      </c>
+      <c r="AQ46">
+        <v>100</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O47">
+        <v>300</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="T47">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="U47">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AB47">
+        <v>300</v>
+      </c>
+      <c r="AC47">
+        <v>100</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF47">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AG47">
+        <v>0.436</v>
+      </c>
+      <c r="AH47">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AP47">
+        <v>300</v>
+      </c>
+      <c r="AQ47">
+        <v>100</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT47">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AU47">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AV47">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>300</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>0.46</v>
+      </c>
+      <c r="F48">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="O48">
+        <v>300</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>300</v>
+      </c>
+      <c r="AC48">
+        <v>100</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>300</v>
+      </c>
+      <c r="AQ48">
+        <v>100</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>300</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O49">
+        <v>300</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49">
+        <v>0.42</v>
+      </c>
+      <c r="T49">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="U49">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AB49">
+        <v>300</v>
+      </c>
+      <c r="AC49">
+        <v>100</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF49">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="AG49">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="AH49">
+        <v>0.54</v>
+      </c>
+      <c r="AP49">
+        <v>300</v>
+      </c>
+      <c r="AQ49">
+        <v>100</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT49">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AU49">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AV49">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>300</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G50">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O50">
+        <v>300</v>
+      </c>
+      <c r="P50">
+        <v>50</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>300</v>
+      </c>
+      <c r="AC50">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>300</v>
+      </c>
+      <c r="AQ50">
+        <v>50</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="O51">
+        <v>300</v>
+      </c>
+      <c r="P51">
+        <v>50</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="T51">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="U51">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AB51">
+        <v>300</v>
+      </c>
+      <c r="AC51">
+        <v>50</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF51">
+        <v>0.43</v>
+      </c>
+      <c r="AG51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AH51">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AP51">
+        <v>300</v>
+      </c>
+      <c r="AQ51">
+        <v>50</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT51">
+        <v>0.433</v>
+      </c>
+      <c r="AU51">
+        <v>0.437</v>
+      </c>
+      <c r="AV51">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O52">
+        <v>300</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>300</v>
+      </c>
+      <c r="AC52">
+        <v>50</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>300</v>
+      </c>
+      <c r="AQ52">
+        <v>50</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G53">
+        <v>0.42</v>
+      </c>
+      <c r="O53">
+        <v>300</v>
+      </c>
+      <c r="P53">
+        <v>50</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" t="s">
+        <v>11</v>
+      </c>
+      <c r="S53">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="T53">
+        <v>0.42</v>
+      </c>
+      <c r="U53">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AB53">
+        <v>300</v>
+      </c>
+      <c r="AC53">
+        <v>50</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF53">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AG53">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AH53">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AP53">
+        <v>300</v>
+      </c>
+      <c r="AQ53">
+        <v>50</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT53">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AU53">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AV53">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>300</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="O54">
+        <v>300</v>
+      </c>
+      <c r="P54">
+        <v>50</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>300</v>
+      </c>
+      <c r="AC54">
+        <v>50</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>300</v>
+      </c>
+      <c r="AQ54">
+        <v>50</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>300</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>0.38</v>
+      </c>
+      <c r="F55">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G55">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O55">
+        <v>300</v>
+      </c>
+      <c r="P55">
+        <v>50</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" t="s">
+        <v>11</v>
+      </c>
+      <c r="S55">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T55">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="U55">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AB55">
+        <v>300</v>
+      </c>
+      <c r="AC55">
+        <v>50</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF55">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AG55">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AH55">
+        <v>0.41</v>
+      </c>
+      <c r="AP55">
+        <v>300</v>
+      </c>
+      <c r="AQ55">
+        <v>50</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT55">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AU55">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AV55">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.39</v>
+      </c>
+      <c r="G56">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O56">
+        <v>300</v>
+      </c>
+      <c r="P56">
+        <v>50</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>14</v>
+      </c>
+      <c r="R56" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>300</v>
+      </c>
+      <c r="AC56">
+        <v>50</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>300</v>
+      </c>
+      <c r="AQ56">
+        <v>50</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>300</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>0.39</v>
+      </c>
+      <c r="F57">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O57">
+        <v>300</v>
+      </c>
+      <c r="P57">
+        <v>50</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" t="s">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>0.42</v>
+      </c>
+      <c r="T57">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="U57">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AB57">
+        <v>300</v>
+      </c>
+      <c r="AC57">
+        <v>50</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF57">
+        <v>0.438</v>
+      </c>
+      <c r="AG57">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AH57">
+        <v>0.434</v>
+      </c>
+      <c r="AP57">
+        <v>300</v>
+      </c>
+      <c r="AQ57">
+        <v>50</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT57">
+        <v>0.45</v>
+      </c>
+      <c r="AU57">
+        <v>0.442</v>
+      </c>
+      <c r="AV57">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>300</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.435</v>
+      </c>
+      <c r="G58">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O58">
+        <v>300</v>
+      </c>
+      <c r="P58">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>300</v>
+      </c>
+      <c r="AC58">
+        <v>10</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>300</v>
+      </c>
+      <c r="AQ58">
+        <v>10</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>300</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G59">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O59">
+        <v>300</v>
+      </c>
+      <c r="P59">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R59" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T59">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="U59">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AB59">
+        <v>300</v>
+      </c>
+      <c r="AC59">
+        <v>10</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF59">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AG59">
+        <v>0.435</v>
+      </c>
+      <c r="AH59">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AP59">
+        <v>300</v>
+      </c>
+      <c r="AQ59">
+        <v>10</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT59">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AU59">
+        <v>0.435</v>
+      </c>
+      <c r="AV59">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F60">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O60">
+        <v>300</v>
+      </c>
+      <c r="P60">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>12</v>
+      </c>
+      <c r="R60" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>300</v>
+      </c>
+      <c r="AC60">
+        <v>10</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>300</v>
+      </c>
+      <c r="AQ60">
+        <v>10</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>0.41</v>
+      </c>
+      <c r="F61">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G61">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="O61">
+        <v>300</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R61" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="T61">
+        <v>0.42</v>
+      </c>
+      <c r="U61">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AB61">
+        <v>300</v>
+      </c>
+      <c r="AC61">
+        <v>10</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF61">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AG61">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AH61">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AP61">
+        <v>300</v>
+      </c>
+      <c r="AQ61">
+        <v>10</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT61">
+        <v>0.443</v>
+      </c>
+      <c r="AU61">
+        <v>0.441</v>
+      </c>
+      <c r="AV61">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>300</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F62">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="O62">
+        <v>300</v>
+      </c>
+      <c r="P62">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>13</v>
+      </c>
+      <c r="R62" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>300</v>
+      </c>
+      <c r="AC62">
+        <v>10</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>300</v>
+      </c>
+      <c r="AQ62">
+        <v>10</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>300</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F63">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O63">
+        <v>300</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="T63">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="U63">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AB63">
+        <v>300</v>
+      </c>
+      <c r="AC63">
+        <v>10</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF63">
+        <v>0.443</v>
+      </c>
+      <c r="AG63">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AH63">
+        <v>0.436</v>
+      </c>
+      <c r="AP63">
+        <v>300</v>
+      </c>
+      <c r="AQ63">
+        <v>10</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT63">
+        <v>0.434</v>
+      </c>
+      <c r="AU63">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AV63">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>300</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G64">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O64">
+        <v>300</v>
+      </c>
+      <c r="P64">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" t="s">
+        <v>10</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>300</v>
+      </c>
+      <c r="AC64">
+        <v>10</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>300</v>
+      </c>
+      <c r="AQ64">
+        <v>10</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>300</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="O65">
+        <v>300</v>
+      </c>
+      <c r="P65">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" t="s">
+        <v>11</v>
+      </c>
+      <c r="S65">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="T65">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="U65">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AB65">
+        <v>300</v>
+      </c>
+      <c r="AC65">
+        <v>10</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF65">
+        <v>0.433</v>
+      </c>
+      <c r="AG65">
+        <v>0.433</v>
+      </c>
+      <c r="AH65">
+        <v>0.433</v>
+      </c>
+      <c r="AP65">
+        <v>300</v>
+      </c>
+      <c r="AQ65">
+        <v>10</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT65">
+        <v>0.439</v>
+      </c>
+      <c r="AU65">
+        <v>0.435</v>
+      </c>
+      <c r="AV65">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>300</v>
+      </c>
+      <c r="P66">
+        <v>15000</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>9</v>
+      </c>
+      <c r="R66" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>300</v>
+      </c>
+      <c r="AQ66">
+        <v>15000</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>300</v>
+      </c>
+      <c r="P67">
+        <v>15000</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" t="s">
+        <v>11</v>
+      </c>
+      <c r="S67">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="T67">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="U67">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AP67">
+        <v>300</v>
+      </c>
+      <c r="AQ67">
+        <v>15000</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT67">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AU67">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AV67">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>300</v>
+      </c>
+      <c r="P68">
+        <v>15000</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>12</v>
+      </c>
+      <c r="R68" t="s">
+        <v>10</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>300</v>
+      </c>
+      <c r="AQ68">
+        <v>15000</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>300</v>
+      </c>
+      <c r="P69">
+        <v>15000</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>12</v>
+      </c>
+      <c r="R69" t="s">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="T69">
+        <v>0.68</v>
+      </c>
+      <c r="U69">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AP69">
+        <v>300</v>
+      </c>
+      <c r="AQ69">
+        <v>15000</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT69">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AU69">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AV69">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>300</v>
+      </c>
+      <c r="P70">
+        <v>15000</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>13</v>
+      </c>
+      <c r="R70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>300</v>
+      </c>
+      <c r="AQ70">
+        <v>15000</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>300</v>
+      </c>
+      <c r="P71">
+        <v>15000</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>13</v>
+      </c>
+      <c r="R71" t="s">
+        <v>11</v>
+      </c>
+      <c r="S71">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="T71">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="U71">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AP71">
+        <v>300</v>
+      </c>
+      <c r="AQ71">
+        <v>15000</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT71">
+        <v>0.76</v>
+      </c>
+      <c r="AU71">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AV71">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>300</v>
+      </c>
+      <c r="P72">
+        <v>15000</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>14</v>
+      </c>
+      <c r="R72" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>300</v>
+      </c>
+      <c r="AQ72">
+        <v>15000</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>300</v>
+      </c>
+      <c r="P73">
+        <v>15000</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>14</v>
+      </c>
+      <c r="R73" t="s">
+        <v>11</v>
+      </c>
+      <c r="S73">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="T73">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="U73">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="AP73">
+        <v>300</v>
+      </c>
+      <c r="AQ73">
+        <v>15000</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT73">
+        <v>0.754</v>
+      </c>
+      <c r="AU73">
+        <v>0.74</v>
+      </c>
+      <c r="AV73">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>300</v>
+      </c>
+      <c r="P74">
+        <v>10000</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>9</v>
+      </c>
+      <c r="R74" t="s">
+        <v>10</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>300</v>
+      </c>
+      <c r="AQ74">
+        <v>10000</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>300</v>
+      </c>
+      <c r="P75">
+        <v>10000</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S75">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="T75">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="U75">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AP75">
+        <v>300</v>
+      </c>
+      <c r="AQ75">
+        <v>10000</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT75">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AU75">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AV75">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>300</v>
+      </c>
+      <c r="P76">
+        <v>10000</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>300</v>
+      </c>
+      <c r="AQ76">
+        <v>10000</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>300</v>
+      </c>
+      <c r="P77">
+        <v>10000</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>12</v>
+      </c>
+      <c r="R77" t="s">
+        <v>11</v>
+      </c>
+      <c r="S77">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="T77">
+        <v>0.68</v>
+      </c>
+      <c r="U77">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AP77">
+        <v>300</v>
+      </c>
+      <c r="AQ77">
+        <v>10000</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT77">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AU77">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AV77">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>300</v>
+      </c>
+      <c r="P78">
+        <v>10000</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" t="s">
+        <v>10</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>300</v>
+      </c>
+      <c r="AQ78">
+        <v>10000</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>300</v>
+      </c>
+      <c r="P79">
+        <v>10000</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="T79">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="U79">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AP79">
+        <v>300</v>
+      </c>
+      <c r="AQ79">
+        <v>10000</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT79">
+        <v>0.76</v>
+      </c>
+      <c r="AU79">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AV79">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>300</v>
+      </c>
+      <c r="P80">
+        <v>10000</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>14</v>
+      </c>
+      <c r="R80" t="s">
+        <v>10</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>300</v>
+      </c>
+      <c r="AQ80">
+        <v>10000</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="15:48" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>300</v>
+      </c>
+      <c r="P81">
+        <v>10000</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>14</v>
+      </c>
+      <c r="R81" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="T81">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="U81">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="AP81">
+        <v>300</v>
+      </c>
+      <c r="AQ81">
+        <v>10000</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT81">
+        <v>0.754</v>
+      </c>
+      <c r="AU81">
+        <v>0.74</v>
+      </c>
+      <c r="AV81">
+        <v>0.747</v>
       </c>
     </row>
   </sheetData>

--- a/f-scores/f-score.xlsx
+++ b/f-scores/f-score.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="F-Score (NT)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="F-Score R (@div sum) NT" sheetId="3" r:id="rId5"/>
     <sheet name="F-Score R (gen)" sheetId="7" r:id="rId6"/>
     <sheet name="F-Score R P NT" sheetId="8" r:id="rId7"/>
+    <sheet name="F-Score R P NT (comp)" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="f_score_each" localSheetId="0">'F-Score (NT)'!$A$1:$L$65</definedName>
@@ -28,12 +29,14 @@
     <definedName name="f_score_each" localSheetId="3">'F-Score R (ST)'!$A$1:$L$65</definedName>
     <definedName name="f_score_each" localSheetId="1">'F-Score R (x actual) (NT)'!$A$1:$L$65</definedName>
     <definedName name="f_score_each" localSheetId="6">'F-Score R P NT'!$A$1:$L$65</definedName>
+    <definedName name="f_score_each" localSheetId="7">'F-Score R P NT (comp)'!$A$1:$L$65</definedName>
     <definedName name="f_score_wiki" localSheetId="0">'F-Score (NT)'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="4">'F-Score R (@div sum) NT'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="2">'F-Score R (div max) (NT)'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="3">'F-Score R (ST)'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="1">'F-Score R (x actual) (NT)'!$O$1:$Y$81</definedName>
     <definedName name="f_score_wiki" localSheetId="6">'F-Score R P NT'!$O$1:$Y$81</definedName>
+    <definedName name="f_score_wiki" localSheetId="7">'F-Score R P NT (comp)'!$O$1:$Y$81</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -175,42 +178,67 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="f-score-wiki" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="f-score-each1141" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-each.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="f-score-wiki" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="f-score-wiki1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="f-score-wiki1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="f-score-wiki11" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="f-score-wiki11" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="f-score-wiki111" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="f-score-wiki111" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="f-score-wiki112" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="f-score-wiki112" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="f-score-wiki113" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="f-score-wiki113" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="f-score-wiki1131" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/liaopeiyu/Documents/courses/ELEC4848/sdp/main/output/segmentation/naive_threshold/f-score-wiki.csv" comma="1">
       <textFields>
         <textField/>
@@ -221,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="15">
   <si>
     <t>d</t>
   </si>
@@ -272,10 +300,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,13 +349,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,11 +827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563470368"/>
-        <c:axId val="563184176"/>
+        <c:axId val="588031904"/>
+        <c:axId val="587387280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563470368"/>
+        <c:axId val="588031904"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -869,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563184176"/>
+        <c:crossAx val="587387280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563184176"/>
+        <c:axId val="587387280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563470368"/>
+        <c:crossAx val="588031904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,7 +1316,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1410,7 +1469,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1507,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570356320"/>
-        <c:axId val="570359712"/>
+        <c:axId val="618401824"/>
+        <c:axId val="591106464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="570356320"/>
+        <c:axId val="618401824"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1544,7 +1602,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1611,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570359712"/>
+        <c:crossAx val="591106464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1619,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570359712"/>
+        <c:axId val="591106464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1725,7 +1781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570356320"/>
+        <c:crossAx val="618401824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,7 +1795,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2007,7 +2062,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2161,7 +2215,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2258,11 +2311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518014144"/>
-        <c:axId val="518101632"/>
+        <c:axId val="613392672"/>
+        <c:axId val="613396064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="518014144"/>
+        <c:axId val="613392672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2295,7 +2348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2362,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518101632"/>
+        <c:crossAx val="613396064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2370,7 +2422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="518101632"/>
+        <c:axId val="613396064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2468,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2476,7 +2527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518014144"/>
+        <c:crossAx val="613392672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2490,7 +2541,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2778,7 +2828,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2944,7 +2993,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3053,11 +3101,1072 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569475984"/>
-        <c:axId val="569577344"/>
+        <c:axId val="613026864"/>
+        <c:axId val="647922240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569475984"/>
+        <c:axId val="613026864"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647922240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647922240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>F-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613026864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>NT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>v.s.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>R-NT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>v.s.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t>PR-NT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.408434467291287"/>
+          <c:y val="0.0368674705790242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.170708431772382"/>
+          <c:y val="0.11825783356907"/>
+          <c:w val="0.76598205988887"/>
+          <c:h val="0.784361498612304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F-Score (PR-NT)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$J$4:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$AL$4:$AL$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score (R-NT)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0250415964243544"/>
+                  <c:y val="0.0184175129194102"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0250415964243544"/>
+                  <c:y val="0.0205861876593528"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0250415964243544"/>
+                  <c:y val="0.0205861876593528"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0263092019175777"/>
+                  <c:y val="0.0205861876593528"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00983033050567478"/>
+                  <c:y val="0.00974281395963977"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0389852568498107"/>
+                  <c:y val="-0.0206186323995566"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0263092019175777"/>
+                  <c:y val="-0.0249559818794418"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0250415964243544"/>
+                  <c:y val="-0.0249559818794418"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$J$4:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$Y$4:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F-Score (NT)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$J$4:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-Score R P NT (comp)'!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="612970912"/>
+        <c:axId val="565304880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="612970912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3157,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569577344"/>
+        <c:crossAx val="565304880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3165,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569577344"/>
+        <c:axId val="565304880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +4380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569475984"/>
+        <c:crossAx val="612970912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3818,11 +4927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647809696"/>
-        <c:axId val="647205696"/>
+        <c:axId val="615091008"/>
+        <c:axId val="615094400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="647809696"/>
+        <c:axId val="615091008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3921,7 +5030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647205696"/>
+        <c:crossAx val="615094400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +5038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647205696"/>
+        <c:axId val="615094400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647809696"/>
+        <c:crossAx val="615091008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4604,11 +5713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649740816"/>
-        <c:axId val="564593632"/>
+        <c:axId val="518276624"/>
+        <c:axId val="612974512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="649740816"/>
+        <c:axId val="518276624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4707,7 +5816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564593632"/>
+        <c:crossAx val="612974512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4715,7 +5824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564593632"/>
+        <c:axId val="612974512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +5929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649740816"/>
+        <c:crossAx val="518276624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5366,11 +6475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588614704"/>
-        <c:axId val="563899856"/>
+        <c:axId val="587875056"/>
+        <c:axId val="588500240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="588614704"/>
+        <c:axId val="587875056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5469,7 +6578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563899856"/>
+        <c:crossAx val="588500240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5477,7 +6586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563899856"/>
+        <c:axId val="588500240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +6691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588614704"/>
+        <c:crossAx val="587875056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,11 +7261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649432624"/>
-        <c:axId val="589072544"/>
+        <c:axId val="618320544"/>
+        <c:axId val="618369648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="649432624"/>
+        <c:axId val="618320544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6255,7 +7364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589072544"/>
+        <c:crossAx val="618369648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6263,7 +7372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589072544"/>
+        <c:axId val="618369648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +7477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649432624"/>
+        <c:crossAx val="618320544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6898,11 +8007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562294288"/>
-        <c:axId val="649854288"/>
+        <c:axId val="563182016"/>
+        <c:axId val="593960064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562294288"/>
+        <c:axId val="563182016"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7001,7 +8110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649854288"/>
+        <c:crossAx val="593960064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7009,7 +8118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649854288"/>
+        <c:axId val="593960064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,7 +8223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562294288"/>
+        <c:crossAx val="563182016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7668,11 +8777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649484976"/>
-        <c:axId val="649488368"/>
+        <c:axId val="563807168"/>
+        <c:axId val="594111840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="649484976"/>
+        <c:axId val="563807168"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7771,7 +8880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649488368"/>
+        <c:crossAx val="594111840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7779,7 +8888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649488368"/>
+        <c:axId val="594111840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7884,7 +8993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649484976"/>
+        <c:crossAx val="563807168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8430,11 +9539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="650020656"/>
-        <c:axId val="649736416"/>
+        <c:axId val="594499568"/>
+        <c:axId val="594208816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="650020656"/>
+        <c:axId val="594499568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8533,7 +9642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649736416"/>
+        <c:crossAx val="594208816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8541,7 +9650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649736416"/>
+        <c:axId val="594208816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8646,7 +9755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650020656"/>
+        <c:crossAx val="594499568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9216,11 +10325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588335072"/>
-        <c:axId val="588338464"/>
+        <c:axId val="613347488"/>
+        <c:axId val="618288560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="588335072"/>
+        <c:axId val="613347488"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9319,7 +10428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588338464"/>
+        <c:crossAx val="618288560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9327,7 +10436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588338464"/>
+        <c:axId val="618288560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9432,7 +10541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588335072"/>
+        <c:crossAx val="613347488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9633,6 +10742,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11502,6 +12651,509 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16443,12 +18095,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>776113</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16456,11 +18145,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16472,23 +18169,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-each" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="f-score-wiki" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16760,8 +18457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G65" sqref="A1:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49978,7 +51675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BX44" sqref="BX44"/>
     </sheetView>
   </sheetViews>
@@ -56644,4 +58341,4558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AI14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AY23" sqref="AY23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>300</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>15000</v>
+      </c>
+      <c r="AB2">
+        <v>300</v>
+      </c>
+      <c r="AC2">
+        <v>5000</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="J3">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>300</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="X3">
+        <v>10000</v>
+      </c>
+      <c r="AB3">
+        <v>300</v>
+      </c>
+      <c r="AC3">
+        <v>5000</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.747</v>
+      </c>
+      <c r="AK3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J4">
+        <v>5000</v>
+      </c>
+      <c r="K4">
+        <f>ROUND(AVERAGEIFS(G:G,B:B, J4,D:D, "test"), 3)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L11" si="0">ROUND(AVERAGEIFS(G:G,B:B, J4,D:D, "train"), 3)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="O4" s="1">
+        <v>300</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>5000</v>
+      </c>
+      <c r="Y4">
+        <f>ROUND(AVERAGEIFS(U:U,P:P, X4,R:R, "test"), 3)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="Z4">
+        <f>ROUND(AVERAGEIFS(U:U,P:P, X4,R:R, "train"), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>300</v>
+      </c>
+      <c r="AC4">
+        <v>5000</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>5000</v>
+      </c>
+      <c r="AL4">
+        <f>ROUND(AVERAGEIFS(AH:AH,AC:AC, AK4,AE:AE, "test"), 3)</f>
+        <v>0.749</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ref="AM4:AM11" si="1">ROUND(AVERAGEIFS(AH:AH,AC:AC, AK4,AE:AE, "train"), 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K11" si="2">ROUND(AVERAGEIFS(G:G,B:B, J5,D:D, "test"), 3)</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="O5" s="1">
+        <v>300</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="X5">
+        <v>2000</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y11" si="3">ROUND(AVERAGEIFS(U:U,P:P, X5,R:R, "test"), 3)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z10" si="4">ROUND(AVERAGEIFS(U:U,P:P, X5,R:R, "train"), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>300</v>
+      </c>
+      <c r="AC5">
+        <v>5000</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5">
+        <v>0.746</v>
+      </c>
+      <c r="AG5">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AK5">
+        <v>2000</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ref="AL5:AL11" si="5">ROUND(AVERAGEIFS(AH:AH,AC:AC, AK5,AE:AE, "test"), 3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="O6" s="1">
+        <v>300</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1500</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>300</v>
+      </c>
+      <c r="AC6">
+        <v>5000</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1500</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="5"/>
+        <v>0.751</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O7" s="1">
+        <v>300</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="X7">
+        <v>1000</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>300</v>
+      </c>
+      <c r="AC7">
+        <v>5000</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>1000</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="5"/>
+        <v>0.747</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O8" s="1">
+        <v>300</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>500</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>300</v>
+      </c>
+      <c r="AC8">
+        <v>5000</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>500</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="5"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>300</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>300</v>
+      </c>
+      <c r="AC9">
+        <v>5000</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AG9">
+        <v>0.745</v>
+      </c>
+      <c r="AH9">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>100</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O10" s="1">
+        <v>300</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>0.433</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>300</v>
+      </c>
+      <c r="AC10">
+        <v>2000</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>50</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="O11" s="1">
+        <v>300</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>0.437</v>
+      </c>
+      <c r="Z11">
+        <f>ROUND(AVERAGEIFS(U:U,P:P, X11,R:R, "train"), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>300</v>
+      </c>
+      <c r="AC11">
+        <v>2000</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.74</v>
+      </c>
+      <c r="AH11">
+        <v>0.749</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.71</v>
+      </c>
+      <c r="F12">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="O12" s="1">
+        <v>300</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>300</v>
+      </c>
+      <c r="AC12">
+        <v>2000</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O13" s="1">
+        <v>300</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AB13">
+        <v>300</v>
+      </c>
+      <c r="AC13">
+        <v>2000</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <v>0.746</v>
+      </c>
+      <c r="AG13">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AH13">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G14">
+        <v>0.68</v>
+      </c>
+      <c r="O14" s="1">
+        <v>300</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>300</v>
+      </c>
+      <c r="AC14">
+        <v>2000</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="O15" s="1">
+        <v>300</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.747</v>
+      </c>
+      <c r="AB15">
+        <v>300</v>
+      </c>
+      <c r="AC15">
+        <v>2000</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AG15">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AH15">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>300</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>300</v>
+      </c>
+      <c r="AC16">
+        <v>2000</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F17">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O17" s="1">
+        <v>300</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.755</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AB17">
+        <v>300</v>
+      </c>
+      <c r="AC17">
+        <v>2000</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF17">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AG17">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>1500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="O18" s="1">
+        <v>300</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>300</v>
+      </c>
+      <c r="AC18">
+        <v>1500</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>1500</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O19" s="1">
+        <v>300</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AB19">
+        <v>300</v>
+      </c>
+      <c r="AC19">
+        <v>1500</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF19">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AG19">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AH19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>1500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.71</v>
+      </c>
+      <c r="O20" s="1">
+        <v>300</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>300</v>
+      </c>
+      <c r="AC20">
+        <v>1500</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <v>1500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.67</v>
+      </c>
+      <c r="O21" s="1">
+        <v>300</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AB21">
+        <v>300</v>
+      </c>
+      <c r="AC21">
+        <v>1500</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF21">
+        <v>0.747</v>
+      </c>
+      <c r="AG21">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AH21">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>1500</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G22">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="O22" s="1">
+        <v>300</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>300</v>
+      </c>
+      <c r="AC22">
+        <v>1500</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="O23" s="1">
+        <v>300</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AB23">
+        <v>300</v>
+      </c>
+      <c r="AC23">
+        <v>1500</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF23">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AG23">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AH23">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>300</v>
+      </c>
+      <c r="B24">
+        <v>1500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O24" s="1">
+        <v>300</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>300</v>
+      </c>
+      <c r="AC24">
+        <v>1500</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>1500</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="O25" s="1">
+        <v>300</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>300</v>
+      </c>
+      <c r="AC25">
+        <v>1500</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF25">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AG25">
+        <v>0.745</v>
+      </c>
+      <c r="AH25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.624</v>
+      </c>
+      <c r="O26" s="1">
+        <v>300</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>300</v>
+      </c>
+      <c r="AC26">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.624</v>
+      </c>
+      <c r="G27">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <v>300</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AB27">
+        <v>300</v>
+      </c>
+      <c r="AC27">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF27">
+        <v>0.754</v>
+      </c>
+      <c r="AG27">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AH27">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="O28" s="1">
+        <v>300</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>300</v>
+      </c>
+      <c r="AC28">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>300</v>
+      </c>
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="G29">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O29" s="1">
+        <v>300</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AB29">
+        <v>300</v>
+      </c>
+      <c r="AC29">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF29">
+        <v>0.745</v>
+      </c>
+      <c r="AG29">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AH29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="O30" s="1">
+        <v>300</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>300</v>
+      </c>
+      <c r="AC30">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O31" s="1">
+        <v>300</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>300</v>
+      </c>
+      <c r="AC31">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AG31">
+        <v>0.73</v>
+      </c>
+      <c r="AH31">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G32">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="O32" s="1">
+        <v>300</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>300</v>
+      </c>
+      <c r="AC32">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G33">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="O33" s="1">
+        <v>300</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AB33">
+        <v>300</v>
+      </c>
+      <c r="AC33">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF33">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AG33">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AH33">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>300</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G34">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O34" s="1">
+        <v>300</v>
+      </c>
+      <c r="P34" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>300</v>
+      </c>
+      <c r="AC34">
+        <v>500</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>300</v>
+      </c>
+      <c r="B35">
+        <v>500</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F35">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="O35" s="1">
+        <v>300</v>
+      </c>
+      <c r="P35" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>300</v>
+      </c>
+      <c r="AC35">
+        <v>500</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF35">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AG35">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AH35">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>300</v>
+      </c>
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0.627</v>
+      </c>
+      <c r="F36">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.629</v>
+      </c>
+      <c r="O36" s="1">
+        <v>300</v>
+      </c>
+      <c r="P36" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>300</v>
+      </c>
+      <c r="AC36">
+        <v>500</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>300</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F37">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G37">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="O37" s="1">
+        <v>300</v>
+      </c>
+      <c r="P37" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AB37">
+        <v>300</v>
+      </c>
+      <c r="AC37">
+        <v>500</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF37">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AG37">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AH37">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="O38" s="1">
+        <v>300</v>
+      </c>
+      <c r="P38" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>300</v>
+      </c>
+      <c r="AC38">
+        <v>500</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>300</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.624</v>
+      </c>
+      <c r="O39" s="1">
+        <v>300</v>
+      </c>
+      <c r="P39" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AB39">
+        <v>300</v>
+      </c>
+      <c r="AC39">
+        <v>500</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF39">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AG39">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="AH39">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>300</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>300</v>
+      </c>
+      <c r="P40" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>300</v>
+      </c>
+      <c r="AC40">
+        <v>500</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="G41">
+        <v>0.65</v>
+      </c>
+      <c r="O41" s="1">
+        <v>300</v>
+      </c>
+      <c r="P41" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AB41">
+        <v>300</v>
+      </c>
+      <c r="AC41">
+        <v>500</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF41">
+        <v>0.754</v>
+      </c>
+      <c r="AG41">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AH41">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.379</v>
+      </c>
+      <c r="F42">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O42" s="1">
+        <v>300</v>
+      </c>
+      <c r="P42" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>300</v>
+      </c>
+      <c r="AC42">
+        <v>100</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>300</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0.375</v>
+      </c>
+      <c r="F43">
+        <v>0.372</v>
+      </c>
+      <c r="G43">
+        <v>0.373</v>
+      </c>
+      <c r="O43" s="1">
+        <v>300</v>
+      </c>
+      <c r="P43" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AB43">
+        <v>300</v>
+      </c>
+      <c r="AC43">
+        <v>100</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF43">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AG43">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="AH43">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="O44" s="1">
+        <v>300</v>
+      </c>
+      <c r="P44" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>300</v>
+      </c>
+      <c r="AC44">
+        <v>100</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>300</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O45" s="1">
+        <v>300</v>
+      </c>
+      <c r="P45" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AB45">
+        <v>300</v>
+      </c>
+      <c r="AC45">
+        <v>100</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF45">
+        <v>0.62</v>
+      </c>
+      <c r="AG45">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="AH45">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.374</v>
+      </c>
+      <c r="G46">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O46" s="1">
+        <v>300</v>
+      </c>
+      <c r="P46" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>300</v>
+      </c>
+      <c r="AC46">
+        <v>100</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O47" s="1">
+        <v>300</v>
+      </c>
+      <c r="P47" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AB47">
+        <v>300</v>
+      </c>
+      <c r="AC47">
+        <v>100</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF47">
+        <v>0.61</v>
+      </c>
+      <c r="AG47">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="AH47">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>300</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>0.46</v>
+      </c>
+      <c r="F48">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="O48" s="1">
+        <v>300</v>
+      </c>
+      <c r="P48" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>300</v>
+      </c>
+      <c r="AC48">
+        <v>100</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>300</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O49" s="1">
+        <v>300</v>
+      </c>
+      <c r="P49" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="AB49">
+        <v>300</v>
+      </c>
+      <c r="AC49">
+        <v>100</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF49">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="AG49">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AH49">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>300</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G50">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O50" s="1">
+        <v>300</v>
+      </c>
+      <c r="P50" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>300</v>
+      </c>
+      <c r="AC50">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="O51" s="1">
+        <v>300</v>
+      </c>
+      <c r="P51" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AB51">
+        <v>300</v>
+      </c>
+      <c r="AC51">
+        <v>50</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF51">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AG51">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="AH51">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O52" s="1">
+        <v>300</v>
+      </c>
+      <c r="P52" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>300</v>
+      </c>
+      <c r="AC52">
+        <v>50</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G53">
+        <v>0.42</v>
+      </c>
+      <c r="O53" s="1">
+        <v>300</v>
+      </c>
+      <c r="P53" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AB53">
+        <v>300</v>
+      </c>
+      <c r="AC53">
+        <v>50</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF53">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AG53">
+        <v>0.54</v>
+      </c>
+      <c r="AH53">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>300</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="O54" s="1">
+        <v>300</v>
+      </c>
+      <c r="P54" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>300</v>
+      </c>
+      <c r="AC54">
+        <v>50</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>300</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>0.38</v>
+      </c>
+      <c r="F55">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G55">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O55" s="1">
+        <v>300</v>
+      </c>
+      <c r="P55" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AB55">
+        <v>300</v>
+      </c>
+      <c r="AC55">
+        <v>50</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF55">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AG55">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AH55">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.39</v>
+      </c>
+      <c r="G56">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O56" s="1">
+        <v>300</v>
+      </c>
+      <c r="P56" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>300</v>
+      </c>
+      <c r="AC56">
+        <v>50</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>300</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>0.39</v>
+      </c>
+      <c r="F57">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O57" s="1">
+        <v>300</v>
+      </c>
+      <c r="P57" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="AB57">
+        <v>300</v>
+      </c>
+      <c r="AC57">
+        <v>50</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF57">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AG57">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AH57">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>300</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.435</v>
+      </c>
+      <c r="G58">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O58" s="1">
+        <v>300</v>
+      </c>
+      <c r="P58" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>300</v>
+      </c>
+      <c r="AC58">
+        <v>10</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>300</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G59">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O59" s="1">
+        <v>300</v>
+      </c>
+      <c r="P59" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AB59">
+        <v>300</v>
+      </c>
+      <c r="AC59">
+        <v>10</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF59">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AG59">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AH59">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F60">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O60" s="1">
+        <v>300</v>
+      </c>
+      <c r="P60" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>300</v>
+      </c>
+      <c r="AC60">
+        <v>10</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>0.41</v>
+      </c>
+      <c r="F61">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G61">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="O61" s="1">
+        <v>300</v>
+      </c>
+      <c r="P61" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB61">
+        <v>300</v>
+      </c>
+      <c r="AC61">
+        <v>10</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF61">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AG61">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="AH61">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>300</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F62">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="O62" s="1">
+        <v>300</v>
+      </c>
+      <c r="P62" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>300</v>
+      </c>
+      <c r="AC62">
+        <v>10</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>300</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F63">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O63" s="1">
+        <v>300</v>
+      </c>
+      <c r="P63" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="AB63">
+        <v>300</v>
+      </c>
+      <c r="AC63">
+        <v>10</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF63">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="AG63">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH63">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>300</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G64">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O64" s="1">
+        <v>300</v>
+      </c>
+      <c r="P64" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>300</v>
+      </c>
+      <c r="AC64">
+        <v>10</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>300</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="O65" s="1">
+        <v>300</v>
+      </c>
+      <c r="P65" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="AB65">
+        <v>300</v>
+      </c>
+      <c r="AC65">
+        <v>10</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF65">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AG65">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AH65">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>